--- a/Gaseous_Detectors/week2/300N.xlsx
+++ b/Gaseous_Detectors/week2/300N.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\School\NuclearLab\Nuclear_Instrumentation\Gaseous_Detectors\week2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\School\Nuclear_Instrumentation\Nuclear_Instrumentation\Gaseous_Detectors\week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="14175" windowHeight="5325" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="14175" windowHeight="5325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4B" sheetId="1" r:id="rId1"/>
-    <sheet name="4c" sheetId="2" r:id="rId2"/>
+    <sheet name="4C" sheetId="2" r:id="rId2"/>
     <sheet name="4D" sheetId="3" r:id="rId3"/>
-    <sheet name="4D BackGround" sheetId="4" r:id="rId4"/>
+    <sheet name="4D_BackGround" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,23 +170,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -222,23 +205,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,9 +387,9 @@
       <selection activeCell="A301" sqref="A1:A301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,7 +412,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -454,7 +420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -462,7 +428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -470,7 +436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -478,7 +444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -486,7 +452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -494,7 +460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -502,7 +468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -510,7 +476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -518,7 +484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -526,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -534,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -542,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -550,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -558,7 +524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -566,7 +532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -574,7 +540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -582,7 +548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -590,7 +556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -598,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -606,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -614,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -622,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -630,7 +596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -638,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -646,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -654,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -662,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -670,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -678,7 +644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -686,7 +652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -694,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -702,7 +668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -710,7 +676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -718,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -726,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -734,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -742,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -750,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -758,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -766,7 +732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -774,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -782,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -790,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -798,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -806,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -814,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -822,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -830,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -838,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -846,7 +812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -854,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -862,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -870,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -878,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -886,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -894,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -902,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -910,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -918,7 +884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -926,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -934,7 +900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -942,7 +908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -950,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -958,7 +924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -966,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -974,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -982,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -990,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -998,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1006,7 +972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1014,7 +980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1022,7 +988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1030,7 +996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1038,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1046,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1054,7 +1020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1062,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1070,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1078,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1086,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1094,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1102,7 +1068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1110,7 +1076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1118,7 +1084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1126,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1134,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1142,7 +1108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1150,7 +1116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1158,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1166,7 +1132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1174,7 +1140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1182,7 +1148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1190,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1198,7 +1164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1206,7 +1172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1214,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1222,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1230,7 +1196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1238,7 +1204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1246,7 +1212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1254,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1262,7 +1228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1270,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1278,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1286,7 +1252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1294,7 +1260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1302,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1310,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1318,7 +1284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1326,7 +1292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1334,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1342,7 +1308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1350,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1358,7 +1324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1366,7 +1332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1374,7 +1340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1382,7 +1348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1390,7 +1356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1398,7 +1364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1406,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1414,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1422,7 +1388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1430,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1438,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -1446,7 +1412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -1454,7 +1420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -1462,7 +1428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -1470,7 +1436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -1478,7 +1444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -1486,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -1494,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -1502,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -1510,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -1518,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -1526,7 +1492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -1534,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -1542,7 +1508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -1550,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -1558,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -1566,7 +1532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -1574,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -1582,7 +1548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -1590,7 +1556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -1598,7 +1564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -1606,7 +1572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -1614,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -1622,7 +1588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -1630,7 +1596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -1638,7 +1604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -1646,7 +1612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -1654,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -1662,7 +1628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -1670,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -1678,7 +1644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -1686,7 +1652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -1694,7 +1660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -1702,7 +1668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -1710,7 +1676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -1718,7 +1684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -1726,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -1734,7 +1700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -1742,7 +1708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -1750,7 +1716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -1758,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -1766,7 +1732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -1774,7 +1740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -1782,7 +1748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -1790,7 +1756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -1798,7 +1764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -1806,7 +1772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -1814,7 +1780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -1822,7 +1788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -1830,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -1838,7 +1804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -1846,7 +1812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -1854,7 +1820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -1862,7 +1828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -1870,7 +1836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -1878,7 +1844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -1886,7 +1852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -1894,7 +1860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -1902,7 +1868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -1910,7 +1876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -1918,7 +1884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -1926,7 +1892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -1934,7 +1900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -1942,7 +1908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -1950,7 +1916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -1958,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -1966,7 +1932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -1974,7 +1940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -1982,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -1990,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -1998,7 +1964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -2006,7 +1972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -2014,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -2022,7 +1988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -2030,7 +1996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -2038,7 +2004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -2046,7 +2012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -2054,7 +2020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -2062,7 +2028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -2070,7 +2036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -2078,7 +2044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -2086,7 +2052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -2094,7 +2060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -2102,7 +2068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -2110,7 +2076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -2118,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -2126,7 +2092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -2134,7 +2100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -2142,7 +2108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -2150,7 +2116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -2158,7 +2124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -2166,7 +2132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -2174,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -2182,7 +2148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -2190,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -2198,7 +2164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -2206,7 +2172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -2214,7 +2180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -2222,7 +2188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -2230,7 +2196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -2238,7 +2204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -2246,7 +2212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -2254,7 +2220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -2262,7 +2228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -2270,7 +2236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -2278,7 +2244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -2286,7 +2252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -2294,7 +2260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -2302,7 +2268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -2310,7 +2276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -2318,7 +2284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -2326,7 +2292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -2334,7 +2300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -2342,7 +2308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -2350,7 +2316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -2358,7 +2324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -2366,7 +2332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -2374,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -2382,7 +2348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -2390,7 +2356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -2398,7 +2364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -2406,7 +2372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -2414,7 +2380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -2422,7 +2388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -2430,7 +2396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -2438,7 +2404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -2446,7 +2412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -2454,7 +2420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -2462,7 +2428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -2470,7 +2436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -2478,7 +2444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -2486,7 +2452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -2494,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -2502,7 +2468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -2510,7 +2476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -2518,7 +2484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -2526,7 +2492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -2534,7 +2500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -2542,7 +2508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -2550,7 +2516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -2558,7 +2524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -2566,7 +2532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -2574,7 +2540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -2582,7 +2548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -2590,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -2598,7 +2564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -2606,7 +2572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -2614,7 +2580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -2622,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -2630,7 +2596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -2638,7 +2604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -2646,7 +2612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -2654,7 +2620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -2662,7 +2628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -2670,7 +2636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -2678,7 +2644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -2686,7 +2652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -2694,7 +2660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -2702,7 +2668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -2710,7 +2676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -2718,7 +2684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -2726,7 +2692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -2734,7 +2700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -2742,7 +2708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -2750,7 +2716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -2758,7 +2724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -2766,7 +2732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -2774,7 +2740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -2782,7 +2748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -2790,7 +2756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -2798,7 +2764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -2806,7 +2772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -2814,7 +2780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -2822,7 +2788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -2830,7 +2796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -2847,13 +2813,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="G268" sqref="G268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2861,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2869,7 +2835,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2877,7 +2843,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2885,7 +2851,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2893,7 +2859,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2901,7 +2867,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2909,7 +2875,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2917,7 +2883,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2925,7 +2891,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2933,7 +2899,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2941,7 +2907,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2949,7 +2915,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2957,7 +2923,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2965,7 +2931,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2973,7 +2939,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2981,7 +2947,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2989,7 +2955,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2997,7 +2963,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3005,7 +2971,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3013,7 +2979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3021,7 +2987,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3029,7 +2995,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3037,7 +3003,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3045,7 +3011,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3053,7 +3019,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3061,7 +3027,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3069,7 +3035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3077,7 +3043,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3085,7 +3051,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3093,7 +3059,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3101,7 +3067,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3109,7 +3075,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3117,7 +3083,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3125,7 +3091,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3133,7 +3099,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3141,7 +3107,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3149,7 +3115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3157,7 +3123,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3165,7 +3131,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3173,7 +3139,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3181,7 +3147,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3189,7 +3155,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3197,7 +3163,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3205,7 +3171,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3213,7 +3179,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3221,7 +3187,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3229,7 +3195,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3237,7 +3203,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3245,7 +3211,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3253,7 +3219,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3261,7 +3227,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3269,7 +3235,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3277,7 +3243,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3285,7 +3251,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3293,7 +3259,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3301,7 +3267,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3309,7 +3275,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3317,7 +3283,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3325,7 +3291,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3333,7 +3299,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3341,7 +3307,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3349,7 +3315,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3357,7 +3323,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3365,7 +3331,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3373,7 +3339,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3381,7 +3347,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3389,7 +3355,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3397,7 +3363,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3405,7 +3371,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3413,7 +3379,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3421,7 +3387,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3429,7 +3395,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3437,7 +3403,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3445,7 +3411,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3453,7 +3419,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3461,7 +3427,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3469,7 +3435,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3477,7 +3443,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3485,7 +3451,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3493,7 +3459,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3501,7 +3467,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3509,7 +3475,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3517,7 +3483,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3525,7 +3491,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3533,7 +3499,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3541,7 +3507,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3549,7 +3515,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3557,7 +3523,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3565,7 +3531,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3573,7 +3539,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3581,7 +3547,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3589,7 +3555,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3597,7 +3563,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3605,7 +3571,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3613,7 +3579,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3621,7 +3587,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3629,7 +3595,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3637,7 +3603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3645,7 +3611,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3653,7 +3619,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3661,7 +3627,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3669,7 +3635,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3677,7 +3643,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3685,7 +3651,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3693,7 +3659,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3701,7 +3667,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3709,7 +3675,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3717,7 +3683,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3725,7 +3691,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3733,7 +3699,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3741,7 +3707,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3749,7 +3715,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3757,7 +3723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3765,7 +3731,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3773,7 +3739,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3781,7 +3747,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3789,7 +3755,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3797,7 +3763,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3805,7 +3771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3813,7 +3779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3821,7 +3787,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3829,7 +3795,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3837,7 +3803,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3845,7 +3811,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3853,7 +3819,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3861,7 +3827,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3869,7 +3835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3877,7 +3843,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3885,7 +3851,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3893,7 +3859,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3901,7 +3867,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3909,7 +3875,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3917,7 +3883,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3925,7 +3891,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3933,7 +3899,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3941,7 +3907,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3949,7 +3915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3957,7 +3923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3965,7 +3931,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3973,7 +3939,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3981,7 +3947,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3989,7 +3955,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3997,7 +3963,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4005,7 +3971,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4013,7 +3979,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4021,7 +3987,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4029,7 +3995,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4037,7 +4003,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4045,7 +4011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4053,7 +4019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4061,7 +4027,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4069,7 +4035,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4077,7 +4043,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4085,7 +4051,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4093,7 +4059,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4101,7 +4067,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4109,7 +4075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4117,7 +4083,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4125,7 +4091,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4133,7 +4099,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4141,7 +4107,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4149,7 +4115,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4157,7 +4123,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4165,7 +4131,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4173,7 +4139,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4181,7 +4147,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4189,7 +4155,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4197,7 +4163,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4205,7 +4171,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4213,7 +4179,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4221,7 +4187,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4229,7 +4195,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4237,7 +4203,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4245,7 +4211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4253,7 +4219,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4261,7 +4227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4269,7 +4235,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4277,7 +4243,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4285,7 +4251,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4293,7 +4259,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4301,7 +4267,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4309,7 +4275,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4317,7 +4283,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4325,7 +4291,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4333,7 +4299,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4341,7 +4307,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4349,7 +4315,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4357,7 +4323,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4365,7 +4331,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4373,7 +4339,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4381,7 +4347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4389,7 +4355,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4397,7 +4363,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4405,7 +4371,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4413,7 +4379,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4421,7 +4387,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4429,7 +4395,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4437,7 +4403,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4445,7 +4411,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4453,7 +4419,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4461,7 +4427,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4469,7 +4435,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4477,7 +4443,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4485,7 +4451,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4493,7 +4459,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4501,7 +4467,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4509,7 +4475,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4517,7 +4483,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4525,7 +4491,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -4533,7 +4499,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -4541,7 +4507,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -4549,7 +4515,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -4557,7 +4523,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -4565,7 +4531,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -4573,7 +4539,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -4581,7 +4547,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -4589,7 +4555,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -4597,7 +4563,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -4605,7 +4571,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -4613,7 +4579,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -4621,7 +4587,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -4629,7 +4595,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -4637,7 +4603,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -4645,7 +4611,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -4653,7 +4619,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -4661,7 +4627,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -4669,7 +4635,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -4677,7 +4643,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -4685,7 +4651,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -4693,7 +4659,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -4701,7 +4667,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -4709,7 +4675,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -4717,7 +4683,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -4725,7 +4691,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -4733,7 +4699,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -4741,7 +4707,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -4749,7 +4715,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -4757,7 +4723,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -4765,7 +4731,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -4773,7 +4739,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -4781,7 +4747,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -4789,7 +4755,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -4797,7 +4763,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -4805,7 +4771,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -4813,7 +4779,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -4821,7 +4787,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -4829,7 +4795,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -4837,7 +4803,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -4845,7 +4811,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -4853,7 +4819,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -4861,7 +4827,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -4869,7 +4835,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -4877,7 +4843,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -4885,7 +4851,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -4893,7 +4859,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -4901,7 +4867,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -4909,7 +4875,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -4917,7 +4883,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -4925,7 +4891,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -4933,7 +4899,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -4941,7 +4907,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -4949,7 +4915,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -4957,7 +4923,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -4965,7 +4931,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -4973,7 +4939,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -4981,7 +4947,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -4989,7 +4955,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -4997,7 +4963,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -5005,7 +4971,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -5013,7 +4979,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -5021,7 +4987,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -5029,7 +4995,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -5037,7 +5003,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -5045,7 +5011,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -5053,7 +5019,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -5061,7 +5027,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -5069,7 +5035,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -5077,7 +5043,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -5085,7 +5051,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -5093,7 +5059,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -5101,7 +5067,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -5109,7 +5075,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -5117,7 +5083,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -5125,7 +5091,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -5133,7 +5099,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -5141,7 +5107,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -5149,7 +5115,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -5157,7 +5123,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -5165,7 +5131,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -5173,7 +5139,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -5181,7 +5147,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -5189,7 +5155,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -5197,7 +5163,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -5205,7 +5171,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -5213,7 +5179,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -5221,7 +5187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -5229,7 +5195,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -5237,7 +5203,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -5245,7 +5211,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -5253,7 +5219,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -5274,9 +5240,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5287,7 +5253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5295,7 +5261,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5303,25 +5269,25 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f>SUM('4c'!B280:B300)</f>
+        <f>SUM('4C'!B280:B300)</f>
         <v>3045</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f>SUM('4c'!B240:B260)</f>
+        <f>SUM('4C'!B240:B260)</f>
         <v>3030</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5329,7 +5295,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5337,7 +5303,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5345,7 +5311,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5353,7 +5319,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5361,7 +5327,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5378,13 +5344,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5392,7 +5358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5404,7 +5370,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5416,7 +5382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5428,7 +5394,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5440,7 +5406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5452,7 +5418,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5460,7 +5426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5468,7 +5434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5476,7 +5442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5484,7 +5450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5492,7 +5458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>21</v>
       </c>
